--- a/liutf_data/Bergamn.xlsx
+++ b/liutf_data/Bergamn.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zengy\Documents\NetSarang Computer\7\Xftp\Temporary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zengy\PycharmProjects\SEMG-MIGNN\liutf_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B32FDDC-7F78-4A2D-AB53-D8C86D0C7B65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2E2CDE-D1BD-4CC9-AAD4-B835A778E78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{335F06B2-9506-4EA5-994B-0C2B70830D92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>C#C/C=C\C#C</t>
   </si>
@@ -194,6 +194,135 @@
   </si>
   <si>
     <t>out2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_std</t>
+  </si>
+  <si>
+    <t>10_std</t>
+  </si>
+  <si>
+    <t>11_std</t>
+  </si>
+  <si>
+    <t>12_std</t>
+  </si>
+  <si>
+    <t>13_std</t>
+  </si>
+  <si>
+    <t>14_std</t>
+  </si>
+  <si>
+    <t>15_std</t>
+  </si>
+  <si>
+    <t>16_std</t>
+  </si>
+  <si>
+    <t>17_std</t>
+  </si>
+  <si>
+    <t>18_std</t>
+  </si>
+  <si>
+    <t>19_std</t>
+  </si>
+  <si>
+    <t>20_std</t>
+  </si>
+  <si>
+    <t>21_std</t>
+  </si>
+  <si>
+    <t>22_std</t>
+  </si>
+  <si>
+    <t>23_std</t>
+  </si>
+  <si>
+    <t>24_std</t>
+  </si>
+  <si>
+    <t>25_std</t>
+  </si>
+  <si>
+    <t>26_std</t>
+  </si>
+  <si>
+    <t>27_std</t>
+  </si>
+  <si>
+    <t>28_std</t>
+  </si>
+  <si>
+    <t>29_std</t>
+  </si>
+  <si>
+    <t>30_std</t>
+  </si>
+  <si>
+    <t>31_std</t>
+  </si>
+  <si>
+    <t>32_std</t>
+  </si>
+  <si>
+    <t>33_std</t>
+  </si>
+  <si>
+    <t>34_std</t>
+  </si>
+  <si>
+    <t>35_std</t>
+  </si>
+  <si>
+    <t>36_std</t>
+  </si>
+  <si>
+    <t>37_std</t>
+  </si>
+  <si>
+    <t>38_std</t>
+  </si>
+  <si>
+    <t>39_std</t>
+  </si>
+  <si>
+    <t>02_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>03_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>04_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>05_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>06_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>07_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09_std</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -574,13 +703,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B430590-B737-4B07-844A-A112C8A41B38}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:24" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
       <c r="B1" t="s">
         <v>25</v>
       </c>
@@ -622,8 +752,8 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>51</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -691,8 +821,8 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>82</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -760,8 +890,8 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -829,8 +959,8 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>84</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -898,8 +1028,8 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>85</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -967,8 +1097,8 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>86</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1036,8 +1166,8 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>87</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1105,8 +1235,8 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>88</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1174,8 +1304,8 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>89</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1243,8 +1373,8 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>9</v>
@@ -1312,8 +1442,8 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>53</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>10</v>
@@ -1381,8 +1511,8 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>54</v>
       </c>
       <c r="B13" t="s">
         <v>11</v>
@@ -1450,8 +1580,8 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
+      <c r="A14" t="s">
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -1519,8 +1649,8 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
+      <c r="A15" t="s">
+        <v>56</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1582,8 +1712,8 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
+      <c r="A16" t="s">
+        <v>57</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1651,8 +1781,8 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>58</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1720,8 +1850,8 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1789,8 +1919,8 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" t="s">
+        <v>60</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1858,8 +1988,8 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1927,8 +2057,8 @@
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>62</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -1996,8 +2126,8 @@
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>63</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2065,8 +2195,8 @@
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>64</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -2134,8 +2264,8 @@
       </c>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>65</v>
       </c>
       <c r="B24" t="s">
         <v>22</v>
@@ -2203,8 +2333,8 @@
       </c>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
+      <c r="A25" t="s">
+        <v>66</v>
       </c>
       <c r="B25" t="s">
         <v>23</v>
@@ -2272,8 +2402,8 @@
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
+      <c r="A26" t="s">
+        <v>67</v>
       </c>
       <c r="B26" t="s">
         <v>24</v>
@@ -2341,8 +2471,8 @@
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" t="s">
+        <v>68</v>
       </c>
       <c r="B27" t="s">
         <v>36</v>
@@ -2410,8 +2540,8 @@
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" t="s">
+        <v>69</v>
       </c>
       <c r="B28" t="s">
         <v>37</v>
@@ -2479,8 +2609,8 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" t="s">
+        <v>70</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
@@ -2548,8 +2678,8 @@
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>36</v>
@@ -2617,8 +2747,8 @@
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>72</v>
       </c>
       <c r="B31" t="s">
         <v>39</v>
@@ -2686,8 +2816,8 @@
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
+      <c r="A32" t="s">
+        <v>73</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
@@ -2755,8 +2885,8 @@
       </c>
     </row>
     <row r="33" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
+      <c r="A33" t="s">
+        <v>74</v>
       </c>
       <c r="B33" t="s">
         <v>41</v>
@@ -2824,8 +2954,8 @@
       </c>
     </row>
     <row r="34" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
+      <c r="A34" t="s">
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
@@ -2893,8 +3023,8 @@
       </c>
     </row>
     <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
+      <c r="A35" t="s">
+        <v>76</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -2962,8 +3092,8 @@
       </c>
     </row>
     <row r="36" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
+      <c r="A36" t="s">
+        <v>77</v>
       </c>
       <c r="B36" t="s">
         <v>44</v>
@@ -3031,8 +3161,8 @@
       </c>
     </row>
     <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
+      <c r="A37" t="s">
+        <v>78</v>
       </c>
       <c r="B37" t="s">
         <v>45</v>
@@ -3100,8 +3230,8 @@
       </c>
     </row>
     <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
+      <c r="A38" t="s">
+        <v>79</v>
       </c>
       <c r="B38" t="s">
         <v>46</v>
@@ -3169,8 +3299,8 @@
       </c>
     </row>
     <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
+      <c r="A39" t="s">
+        <v>80</v>
       </c>
       <c r="B39" t="s">
         <v>47</v>
@@ -3238,8 +3368,8 @@
       </c>
     </row>
     <row r="40" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
+      <c r="A40" t="s">
+        <v>81</v>
       </c>
       <c r="B40" t="s">
         <v>48</v>
